--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N2">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O2">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P2">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q2">
-        <v>12364.48838427291</v>
+        <v>13639.45157708319</v>
       </c>
       <c r="R2">
-        <v>12364.48838427291</v>
+        <v>122755.0641937487</v>
       </c>
       <c r="S2">
-        <v>0.7186933344220079</v>
+        <v>0.6929064162965652</v>
       </c>
       <c r="T2">
-        <v>0.7186933344220079</v>
+        <v>0.7259757080727381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N3">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O3">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P3">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q3">
-        <v>173.7102268099019</v>
+        <v>198.531518196598</v>
       </c>
       <c r="R3">
-        <v>173.7102268099019</v>
+        <v>1786.783663769382</v>
       </c>
       <c r="S3">
-        <v>0.01009701155836002</v>
+        <v>0.01008572536938756</v>
       </c>
       <c r="T3">
-        <v>0.01009701155836002</v>
+        <v>0.01056707146053398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N4">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O4">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P4">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q4">
-        <v>89.15842564816408</v>
+        <v>211.5162628979573</v>
       </c>
       <c r="R4">
-        <v>89.15842564816408</v>
+        <v>1903.646366081616</v>
       </c>
       <c r="S4">
-        <v>0.005182387190593313</v>
+        <v>0.01074537160711912</v>
       </c>
       <c r="T4">
-        <v>0.005182387190593313</v>
+        <v>0.01125819963203257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H5">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I5">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J5">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N5">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O5">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P5">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q5">
-        <v>182.4791681707808</v>
+        <v>199.3762899401427</v>
       </c>
       <c r="R5">
-        <v>182.4791681707808</v>
+        <v>1794.386609461284</v>
       </c>
       <c r="S5">
-        <v>0.01060671155646242</v>
+        <v>0.01012864115365499</v>
       </c>
       <c r="T5">
-        <v>0.01060671155646242</v>
+        <v>0.01061203542123385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H6">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I6">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J6">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N6">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O6">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P6">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q6">
-        <v>127.1926326848058</v>
+        <v>130.808266055908</v>
       </c>
       <c r="R6">
-        <v>127.1926326848058</v>
+        <v>784.849596335448</v>
       </c>
       <c r="S6">
-        <v>0.007393148382461948</v>
+        <v>0.006645273553890932</v>
       </c>
       <c r="T6">
-        <v>0.007393148382461948</v>
+        <v>0.004641614952283539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N7">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O7">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P7">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q7">
-        <v>2032.764009891131</v>
+        <v>2359.949630762211</v>
       </c>
       <c r="R7">
-        <v>2032.764009891131</v>
+        <v>21239.5466768599</v>
       </c>
       <c r="S7">
-        <v>0.1181556324012527</v>
+        <v>0.11988929555198</v>
       </c>
       <c r="T7">
-        <v>0.1181556324012527</v>
+        <v>0.1256110698092289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H8">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J8">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N8">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O8">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P8">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q8">
-        <v>28.55855302984773</v>
+        <v>34.35067608216234</v>
       </c>
       <c r="R8">
-        <v>28.55855302984773</v>
+        <v>309.156084739461</v>
       </c>
       <c r="S8">
-        <v>0.00165998309557197</v>
+        <v>0.001745070447073305</v>
       </c>
       <c r="T8">
-        <v>0.00165998309557197</v>
+        <v>0.001828354772960603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H9">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J9">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N9">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O9">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P9">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q9">
-        <v>14.65794889392021</v>
+        <v>36.59734584672978</v>
       </c>
       <c r="R9">
-        <v>14.65794889392021</v>
+        <v>329.376112620568</v>
       </c>
       <c r="S9">
-        <v>0.0008520021078881367</v>
+        <v>0.001859204940412016</v>
       </c>
       <c r="T9">
-        <v>0.0008520021078881367</v>
+        <v>0.001947936389854782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H10">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I10">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J10">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N10">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O10">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P10">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q10">
-        <v>30.00019686089481</v>
+        <v>34.49684169248688</v>
       </c>
       <c r="R10">
-        <v>30.00019686089481</v>
+        <v>310.471575232382</v>
       </c>
       <c r="S10">
-        <v>0.00174377951154839</v>
+        <v>0.001752495898797914</v>
       </c>
       <c r="T10">
-        <v>0.00174377951154839</v>
+        <v>0.001836134607937952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H11">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I11">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J11">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N11">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O11">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P11">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q11">
-        <v>20.91090209392274</v>
+        <v>22.63294219966733</v>
       </c>
       <c r="R11">
-        <v>20.91090209392274</v>
+        <v>135.797653198004</v>
       </c>
       <c r="S11">
-        <v>0.001215458778769133</v>
+        <v>0.001149790428243341</v>
       </c>
       <c r="T11">
-        <v>0.001215458778769133</v>
+        <v>0.0008031098193996756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H12">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I12">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J12">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N12">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O12">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P12">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q12">
-        <v>52.55868347653286</v>
+        <v>75.52162419031532</v>
       </c>
       <c r="R12">
-        <v>52.55868347653286</v>
+        <v>679.694617712838</v>
       </c>
       <c r="S12">
-        <v>0.003055005132976359</v>
+        <v>0.003836621852049428</v>
       </c>
       <c r="T12">
-        <v>0.003055005132976359</v>
+        <v>0.004019726474082486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H13">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I13">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J13">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N13">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O13">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P13">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q13">
-        <v>0.7384034457221301</v>
+        <v>1.099268736902</v>
       </c>
       <c r="R13">
-        <v>0.7384034457221301</v>
+        <v>9.893418632117999</v>
       </c>
       <c r="S13">
-        <v>4.292014502029433E-05</v>
+        <v>5.584464717873247E-05</v>
       </c>
       <c r="T13">
-        <v>4.292014502029433E-05</v>
+        <v>5.850985980811086E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H14">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I14">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J14">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N14">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O14">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P14">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q14">
-        <v>0.3789925896867918</v>
+        <v>1.171165250042666</v>
       </c>
       <c r="R14">
-        <v>0.3789925896867918</v>
+        <v>10.540487250384</v>
       </c>
       <c r="S14">
-        <v>2.202917254139582E-05</v>
+        <v>5.949710746886766E-05</v>
       </c>
       <c r="T14">
-        <v>2.202917254139582E-05</v>
+        <v>6.233663552121606E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H15">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I15">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J15">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N15">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O15">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P15">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q15">
-        <v>0.7756782604242842</v>
+        <v>1.103946236857333</v>
       </c>
       <c r="R15">
-        <v>0.7756782604242842</v>
+        <v>9.935516131715998</v>
       </c>
       <c r="S15">
-        <v>4.508676607534164E-05</v>
+        <v>5.608227181583465E-05</v>
       </c>
       <c r="T15">
-        <v>4.508676607534164E-05</v>
+        <v>5.875882519523748E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H16">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I16">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J16">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N16">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O16">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P16">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q16">
-        <v>0.5406675241274639</v>
+        <v>0.7242851850919999</v>
       </c>
       <c r="R16">
-        <v>0.5406675241274639</v>
+        <v>4.345711110551999</v>
       </c>
       <c r="S16">
-        <v>3.142662548198176E-05</v>
+        <v>3.679487031736769E-05</v>
       </c>
       <c r="T16">
-        <v>3.142662548198176E-05</v>
+        <v>2.570061545960412E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H17">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I17">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J17">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N17">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O17">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P17">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q17">
-        <v>158.3352863544068</v>
+        <v>207.2886711993832</v>
       </c>
       <c r="R17">
-        <v>158.3352863544068</v>
+        <v>1865.598040794449</v>
       </c>
       <c r="S17">
-        <v>0.009203333884113939</v>
+        <v>0.01053060304425799</v>
       </c>
       <c r="T17">
-        <v>0.009203333884113939</v>
+        <v>0.01103318113627637</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H18">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I18">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J18">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N18">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O18">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P18">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q18">
-        <v>2.224472024222147</v>
+        <v>3.017227955654333</v>
       </c>
       <c r="R18">
-        <v>2.224472024222147</v>
+        <v>27.155051600889</v>
       </c>
       <c r="S18">
-        <v>0.0001292987761992791</v>
+        <v>0.0001532801079344677</v>
       </c>
       <c r="T18">
-        <v>0.0001292987761992791</v>
+        <v>0.0001605954747625888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H19">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I19">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J19">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N19">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O19">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P19">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q19">
-        <v>1.141731418007256</v>
+        <v>3.214566570025777</v>
       </c>
       <c r="R19">
-        <v>1.141731418007256</v>
+        <v>28.931099130232</v>
       </c>
       <c r="S19">
-        <v>6.636382633233025E-05</v>
+        <v>0.0001633052318412669</v>
       </c>
       <c r="T19">
-        <v>6.636382633233025E-05</v>
+        <v>0.0001710990525266032</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H20">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I20">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J20">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N20">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O20">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P20">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q20">
-        <v>2.336764000909656</v>
+        <v>3.030066566590888</v>
       </c>
       <c r="R20">
-        <v>2.336764000909656</v>
+        <v>27.270599099318</v>
       </c>
       <c r="S20">
-        <v>0.0001358258149772875</v>
+        <v>0.000153932330338279</v>
       </c>
       <c r="T20">
-        <v>0.0001358258149772875</v>
+        <v>0.000161278824794125</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H21">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I21">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J21">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N21">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O21">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P21">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q21">
-        <v>1.628784086524409</v>
+        <v>1.987988409899333</v>
       </c>
       <c r="R21">
-        <v>1.628784086524409</v>
+        <v>11.927930459396</v>
       </c>
       <c r="S21">
-        <v>9.467405603993122E-05</v>
+        <v>0.0001009930580388506</v>
       </c>
       <c r="T21">
-        <v>9.467405603993122E-05</v>
+        <v>7.054200018530373E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H22">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I22">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J22">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N22">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O22">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P22">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q22">
-        <v>1834.591705936363</v>
+        <v>2388.888023280553</v>
       </c>
       <c r="R22">
-        <v>1834.591705936363</v>
+        <v>14333.32813968332</v>
       </c>
       <c r="S22">
-        <v>0.1066367478754277</v>
+        <v>0.1213594131545791</v>
       </c>
       <c r="T22">
-        <v>0.1066367478754277</v>
+        <v>0.08476756632070101</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H23">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I23">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J23">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N23">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O23">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P23">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q23">
-        <v>25.77440581748025</v>
+        <v>34.77189411782651</v>
       </c>
       <c r="R23">
-        <v>25.77440581748025</v>
+        <v>208.631364706959</v>
       </c>
       <c r="S23">
-        <v>0.001498152861971424</v>
+        <v>0.001766469011225394</v>
       </c>
       <c r="T23">
-        <v>0.001498152861971424</v>
+        <v>0.001233849729248314</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H24">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I24">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J24">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N24">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O24">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P24">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q24">
-        <v>13.22895886387979</v>
+        <v>37.04611320406534</v>
       </c>
       <c r="R24">
-        <v>13.22895886387979</v>
+        <v>222.276679224392</v>
       </c>
       <c r="S24">
-        <v>0.0007689412017165673</v>
+        <v>0.001882003055099026</v>
       </c>
       <c r="T24">
-        <v>0.0007689412017165673</v>
+        <v>0.001314548370349046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H25">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I25">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J25">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N25">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O25">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P25">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q25">
-        <v>27.07550511011036</v>
+        <v>34.91985205360966</v>
       </c>
       <c r="R25">
-        <v>27.07550511011036</v>
+        <v>209.519112321658</v>
       </c>
       <c r="S25">
-        <v>0.001573780042002896</v>
+        <v>0.001773985516010557</v>
       </c>
       <c r="T25">
-        <v>0.001573780042002896</v>
+        <v>0.001239099884974303</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H26">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I26">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J26">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N26">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O26">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P26">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q26">
-        <v>18.87231737599123</v>
+        <v>22.910473955719</v>
       </c>
       <c r="R26">
-        <v>18.87231737599123</v>
+        <v>91.64189582287599</v>
       </c>
       <c r="S26">
-        <v>0.001096964814207242</v>
+        <v>0.001163889494720278</v>
       </c>
       <c r="T26">
-        <v>0.001096964814207242</v>
+        <v>0.0005419718579115741</v>
       </c>
     </row>
   </sheetData>
